--- a/Banco Central/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
+++ b/Banco Central/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Serie</t>
   </si>
@@ -464,6 +464,15 @@
   </si>
   <si>
     <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
   </si>
 </sst>
 </file>
@@ -821,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4139,6 +4148,75 @@
         <v>929</v>
       </c>
     </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145">
+        <v>4685</v>
+      </c>
+      <c r="C145">
+        <v>668</v>
+      </c>
+      <c r="D145">
+        <v>657</v>
+      </c>
+      <c r="E145">
+        <v>730</v>
+      </c>
+      <c r="F145">
+        <v>1644</v>
+      </c>
+      <c r="G145">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146">
+        <v>3892</v>
+      </c>
+      <c r="C146">
+        <v>501</v>
+      </c>
+      <c r="D146">
+        <v>671</v>
+      </c>
+      <c r="E146">
+        <v>967</v>
+      </c>
+      <c r="F146">
+        <v>934</v>
+      </c>
+      <c r="G146">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147">
+        <v>3715</v>
+      </c>
+      <c r="C147">
+        <v>546</v>
+      </c>
+      <c r="D147">
+        <v>747</v>
+      </c>
+      <c r="E147">
+        <v>686</v>
+      </c>
+      <c r="F147">
+        <v>839</v>
+      </c>
+      <c r="G147">
+        <v>897</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banco Central/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
+++ b/Banco Central/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Serie</t>
   </si>
@@ -473,6 +473,12 @@
   </si>
   <si>
     <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
   </si>
 </sst>
 </file>
@@ -830,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4217,6 +4223,52 @@
         <v>897</v>
       </c>
     </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148">
+        <v>4050</v>
+      </c>
+      <c r="C148">
+        <v>1031</v>
+      </c>
+      <c r="D148">
+        <v>734</v>
+      </c>
+      <c r="E148">
+        <v>652</v>
+      </c>
+      <c r="F148">
+        <v>698</v>
+      </c>
+      <c r="G148">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149">
+        <v>4958</v>
+      </c>
+      <c r="C149">
+        <v>1093</v>
+      </c>
+      <c r="D149">
+        <v>615</v>
+      </c>
+      <c r="E149">
+        <v>818</v>
+      </c>
+      <c r="F149">
+        <v>1170</v>
+      </c>
+      <c r="G149">
+        <v>1261</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
